--- a/LT_Dataset/Parties.xlsx
+++ b/LT_Dataset/Parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="187">
   <si>
     <t xml:space="preserve">Acronym</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">.</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1142007</t>
+  </si>
+  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t xml:space="preserve">The Way of Courage</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1261824</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRONT</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t xml:space="preserve">Socialist People's Front</t>
   </si>
   <si>
+    <t xml:space="preserve">Q4384905</t>
+  </si>
+  <si>
     <t xml:space="preserve">JL</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t xml:space="preserve">Christian Democratic Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1777648</t>
+  </si>
+  <si>
     <t xml:space="preserve">KKSS</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t xml:space="preserve">Christian Conservative Social Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Q2641923</t>
+  </si>
+  <si>
     <t xml:space="preserve">KP</t>
   </si>
   <si>
@@ -163,6 +178,9 @@
     <t xml:space="preserve">Christian Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1640373</t>
+  </si>
+  <si>
     <t xml:space="preserve">LiCS</t>
   </si>
   <si>
@@ -523,6 +541,9 @@
     <t xml:space="preserve">Christian Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Q84735997</t>
+  </si>
+  <si>
     <t xml:space="preserve">KSS</t>
   </si>
   <si>
@@ -530,6 +551,9 @@
   </si>
   <si>
     <t xml:space="preserve">Christian Union of Families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17457805</t>
   </si>
   <si>
     <t xml:space="preserve">LT</t>
@@ -642,12 +666,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -734,8 +762,8 @@
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -828,19 +856,22 @@
       <c r="E3" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="0" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2012</v>
@@ -848,19 +879,22 @@
       <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="0" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2008</v>
@@ -868,19 +902,22 @@
       <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="0" t="n">
         <v>1250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1990</v>
@@ -894,13 +931,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2000</v>
@@ -914,13 +951,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2008</v>
@@ -937,13 +974,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2004</v>
@@ -957,13 +994,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1990</v>
@@ -971,19 +1008,22 @@
       <c r="E10" s="0" t="n">
         <v>2000</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="0" t="n">
         <v>776</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2004</v>
@@ -991,22 +1031,25 @@
       <c r="E11" s="0" t="n">
         <v>2010</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="0" t="n">
         <v>52</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2010</v>
@@ -1014,19 +1057,22 @@
       <c r="E12" s="0" t="n">
         <v>2013</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="0" t="n">
         <v>8254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2003</v>
@@ -1040,13 +1086,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2003</v>
@@ -1060,13 +1106,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1993</v>
@@ -1080,13 +1126,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1990</v>
@@ -1103,13 +1149,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1990</v>
@@ -1123,13 +1169,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1990</v>
@@ -1143,13 +1189,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2001</v>
@@ -1163,13 +1209,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1990</v>
@@ -1183,13 +1229,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1992</v>
@@ -1203,13 +1249,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2014</v>
@@ -1223,13 +1269,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1992</v>
@@ -1243,13 +1289,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2014</v>
@@ -1263,13 +1309,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1996</v>
@@ -1283,13 +1329,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1995</v>
@@ -1303,13 +1349,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1992</v>
@@ -1323,13 +1369,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2008</v>
@@ -1343,13 +1389,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1995</v>
@@ -1363,13 +1409,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2018</v>
@@ -1386,10 +1432,10 @@
         <v>15</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1990</v>
@@ -1403,13 +1449,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1999</v>
@@ -1423,13 +1469,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1996</v>
@@ -1443,13 +1489,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2001</v>
@@ -1463,13 +1509,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1996</v>
@@ -1483,13 +1529,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>2001</v>
@@ -1503,13 +1549,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2012</v>
@@ -1523,13 +1569,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1998</v>
@@ -1543,13 +1589,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1998</v>
@@ -1563,13 +1609,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2000</v>
@@ -1583,13 +1629,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2000</v>
@@ -1603,13 +1649,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2006</v>
@@ -1623,13 +1669,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2012</v>
@@ -1643,13 +1689,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1990</v>
@@ -1663,13 +1709,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>2007</v>
@@ -1683,13 +1729,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2010</v>
@@ -1703,13 +1749,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1993</v>
@@ -1723,13 +1769,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2002</v>
@@ -1743,13 +1789,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>2012</v>
@@ -1763,13 +1809,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2008</v>
@@ -1783,13 +1829,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2019</v>
@@ -1803,13 +1849,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2020</v>
@@ -1823,30 +1869,33 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>2020</v>
       </c>
+      <c r="F53" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="G53" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2020</v>
@@ -1854,22 +1903,25 @@
       <c r="E54" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="F54" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="G54" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2020</v>
@@ -1881,18 +1933,18 @@
         <v>19</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1999</v>
@@ -1904,18 +1956,18 @@
         <v>19</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>2011</v>

--- a/LT_Dataset/Parties.xlsx
+++ b/LT_Dataset/Parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="227">
   <si>
     <t xml:space="preserve">Acronym</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">same_as</t>
   </si>
   <si>
+    <t xml:space="preserve">succeeded_by</t>
+  </si>
+  <si>
     <t xml:space="preserve">BSDK</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t xml:space="preserve">Young Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1226938</t>
+  </si>
+  <si>
     <t xml:space="preserve">JLPKS</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t xml:space="preserve">Liberal and Centre Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1357261</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCP</t>
   </si>
   <si>
@@ -199,6 +208,9 @@
     <t xml:space="preserve">Lithuanian Centre Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q634790</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCS</t>
   </si>
   <si>
@@ -208,6 +220,9 @@
     <t xml:space="preserve">Center Union of Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1824385</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDDP</t>
   </si>
   <si>
@@ -217,6 +232,9 @@
     <t xml:space="preserve">Democratic Labour Party of Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Q63755</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDP</t>
   </si>
   <si>
@@ -226,6 +244,9 @@
     <t xml:space="preserve">Lithuanian Democratic Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q11761933</t>
+  </si>
+  <si>
     <t xml:space="preserve">LKDP</t>
   </si>
   <si>
@@ -235,6 +256,9 @@
     <t xml:space="preserve">Lithuanian Christian Democratic Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q3896751</t>
+  </si>
+  <si>
     <t xml:space="preserve">LKD</t>
   </si>
   <si>
@@ -244,6 +268,9 @@
     <t xml:space="preserve">Lithuanian Christian Democrats</t>
   </si>
   <si>
+    <t xml:space="preserve">Q977089</t>
+  </si>
+  <si>
     <t xml:space="preserve">LLL</t>
   </si>
   <si>
@@ -253,6 +280,9 @@
     <t xml:space="preserve">Lithuanian Liberty League</t>
   </si>
   <si>
+    <t xml:space="preserve">Q2021844</t>
+  </si>
+  <si>
     <t xml:space="preserve">LLS</t>
   </si>
   <si>
@@ -262,6 +292,9 @@
     <t xml:space="preserve">Lithuanian Liberty Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Q3825677</t>
+  </si>
+  <si>
     <t xml:space="preserve">LLSL</t>
   </si>
   <si>
@@ -280,6 +313,9 @@
     <t xml:space="preserve">Electoral Action of Poles in Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1357218</t>
+  </si>
+  <si>
     <t xml:space="preserve">LLP</t>
   </si>
   <si>
@@ -289,12 +325,18 @@
     <t xml:space="preserve">Lithuanian People's Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q3272676</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lietuvos liberalų sąjunga </t>
   </si>
   <si>
     <t xml:space="preserve">Liberal Union of Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1824395</t>
+  </si>
+  <si>
     <t xml:space="preserve">LMP NDP</t>
   </si>
   <si>
@@ -322,6 +364,9 @@
     <t xml:space="preserve">Liberal Movement of the Republic of Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1466907</t>
+  </si>
+  <si>
     <t xml:space="preserve">LRS</t>
   </si>
   <si>
@@ -331,6 +376,9 @@
     <t xml:space="preserve">Lithuanian Russians’ Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Q2705461</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSDDP</t>
   </si>
   <si>
@@ -340,6 +388,9 @@
     <t xml:space="preserve">Social Democratic Labour Party of Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Q51077566</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lietuvos socialdemokratų partija </t>
   </si>
   <si>
@@ -355,6 +406,9 @@
     <t xml:space="preserve">Lithuanian Social Democratic Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Q5616934</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUP</t>
   </si>
   <si>
@@ -364,6 +418,9 @@
     <t xml:space="preserve">Lithuanian Party of Economy</t>
   </si>
   <si>
+    <t xml:space="preserve">Q16459050</t>
+  </si>
+  <si>
     <t xml:space="preserve">LVZS</t>
   </si>
   <si>
@@ -373,6 +430,9 @@
     <t xml:space="preserve">Lithuanian Union of Farmers and Greens</t>
   </si>
   <si>
+    <t xml:space="preserve">Q285817</t>
+  </si>
+  <si>
     <t xml:space="preserve">LVP</t>
   </si>
   <si>
@@ -382,6 +442,9 @@
     <t xml:space="preserve">Lithuanian Farmers Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q2741559</t>
+  </si>
+  <si>
     <t xml:space="preserve">LZP</t>
   </si>
   <si>
@@ -391,6 +454,9 @@
     <t xml:space="preserve">Green Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q15977776</t>
+  </si>
+  <si>
     <t xml:space="preserve">LPP</t>
   </si>
   <si>
@@ -400,6 +466,9 @@
     <t xml:space="preserve">Lithuanian Pensioners' Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q16458940</t>
+  </si>
+  <si>
     <t xml:space="preserve">MKDS</t>
   </si>
   <si>
@@ -409,6 +478,9 @@
     <t xml:space="preserve">Union of Modern Christian Democrats</t>
   </si>
   <si>
+    <t xml:space="preserve">Q5240377</t>
+  </si>
+  <si>
     <t xml:space="preserve">NS</t>
   </si>
   <si>
@@ -418,6 +490,9 @@
     <t xml:space="preserve">New Union (Social Liberals)</t>
   </si>
   <si>
+    <t xml:space="preserve">Q794255</t>
+  </si>
+  <si>
     <t xml:space="preserve">NKS</t>
   </si>
   <si>
@@ -427,6 +502,9 @@
     <t xml:space="preserve">Moderate Conservative Union</t>
   </si>
   <si>
+    <t xml:space="preserve">Q11597170</t>
+  </si>
+  <si>
     <t xml:space="preserve">UTL</t>
   </si>
   <si>
@@ -436,6 +514,9 @@
     <t xml:space="preserve">People’s Union "For Just Lithuania" </t>
   </si>
   <si>
+    <t xml:space="preserve">Q12675778</t>
+  </si>
+  <si>
     <t xml:space="preserve">PDP</t>
   </si>
   <si>
@@ -445,6 +526,9 @@
     <t xml:space="preserve">Civic Democratic Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1290012</t>
+  </si>
+  <si>
     <t xml:space="preserve">List</t>
   </si>
   <si>
@@ -454,6 +538,9 @@
     <t xml:space="preserve">Lithuania’s List</t>
   </si>
   <si>
+    <t xml:space="preserve">Q28225050</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPAP</t>
   </si>
   <si>
@@ -463,6 +550,9 @@
     <t xml:space="preserve">Party of National Progress</t>
   </si>
   <si>
+    <t xml:space="preserve">Q29266</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPP</t>
   </si>
   <si>
@@ -472,6 +562,9 @@
     <t xml:space="preserve">National Resurrection Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q1465363</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAIP</t>
   </si>
   <si>
@@ -481,6 +574,9 @@
     <t xml:space="preserve">YES — Homeland Revival and Perspective</t>
   </si>
   <si>
+    <t xml:space="preserve">Q5746854</t>
+  </si>
+  <si>
     <t xml:space="preserve">TS LKD</t>
   </si>
   <si>
@@ -490,6 +586,9 @@
     <t xml:space="preserve">Homeland Union — Lithuanian Christian Democrats</t>
   </si>
   <si>
+    <t xml:space="preserve">Q81556</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT LDP</t>
   </si>
   <si>
@@ -499,6 +598,9 @@
     <t xml:space="preserve">Order and Justice — Liberal Democratic Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q81517</t>
+  </si>
+  <si>
     <t xml:space="preserve">ULL</t>
   </si>
   <si>
@@ -508,6 +610,9 @@
     <t xml:space="preserve">For Lithuania in Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Q16474668</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZP</t>
   </si>
   <si>
@@ -517,6 +622,9 @@
     <t xml:space="preserve">Samogitian Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q7410008</t>
+  </si>
+  <si>
     <t xml:space="preserve">LP</t>
   </si>
   <si>
@@ -526,12 +634,18 @@
     <t xml:space="preserve">Freedom Party</t>
   </si>
   <si>
+    <t xml:space="preserve">Q64252730</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacionalinis Susivienijimas</t>
   </si>
   <si>
     <t xml:space="preserve">National Aliance</t>
   </si>
   <si>
+    <t xml:space="preserve">Q97216079</t>
+  </si>
+  <si>
     <t xml:space="preserve">KS</t>
   </si>
   <si>
@@ -574,6 +688,9 @@
     <t xml:space="preserve">Social Democracy 2000</t>
   </si>
   <si>
+    <t xml:space="preserve">Q16472824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TVS</t>
   </si>
   <si>
@@ -581,6 +698,9 @@
   </si>
   <si>
     <t xml:space="preserve">Union of National unity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16473985</t>
   </si>
 </sst>
 </file>
@@ -595,6 +715,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -616,12 +737,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF3C3C3C"/>
       <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -760,23 +883,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.2959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,16 +938,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2000</v>
@@ -831,33 +959,33 @@
         <v>2000</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>197</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>102</v>
@@ -865,22 +993,22 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>74</v>
@@ -888,22 +1016,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1250</v>
@@ -911,19 +1039,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1026</v>
@@ -931,13 +1062,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2000</v>
@@ -945,19 +1076,22 @@
       <c r="E7" s="0" t="n">
         <v>2000</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>1679</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2008</v>
@@ -965,22 +1099,25 @@
       <c r="E8" s="0" t="n">
         <v>2008</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="0" t="n">
         <v>8279</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2004</v>
@@ -988,19 +1125,22 @@
       <c r="E9" s="0" t="n">
         <v>2004</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="0" t="n">
         <v>2091</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1990</v>
@@ -1009,7 +1149,7 @@
         <v>2000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>776</v>
@@ -1017,13 +1157,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2004</v>
@@ -1032,24 +1172,24 @@
         <v>2010</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>52</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2010</v>
@@ -1058,7 +1198,7 @@
         <v>2013</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>8254</v>
@@ -1066,13 +1206,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2003</v>
@@ -1080,25 +1220,31 @@
       <c r="E13" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="0" t="n">
         <v>1193</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5455</v>
@@ -1106,13 +1252,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1993</v>
@@ -1120,19 +1266,22 @@
       <c r="E15" s="0" t="n">
         <v>2003</v>
       </c>
+      <c r="F15" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="G15" s="0" t="n">
         <v>1185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1990</v>
@@ -1140,22 +1289,25 @@
       <c r="E16" s="0" t="n">
         <v>2001</v>
       </c>
+      <c r="F16" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="0" t="n">
         <v>546</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1990</v>
@@ -1163,19 +1315,22 @@
       <c r="E17" s="0" t="n">
         <v>1996</v>
       </c>
+      <c r="F17" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="G17" s="0" t="n">
         <v>341</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1990</v>
@@ -1183,19 +1338,22 @@
       <c r="E18" s="0" t="n">
         <v>2001</v>
       </c>
+      <c r="F18" s="0" t="s">
+        <v>78</v>
+      </c>
       <c r="G18" s="0" t="n">
         <v>6804</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2001</v>
@@ -1203,19 +1361,22 @@
       <c r="E19" s="0" t="n">
         <v>2008</v>
       </c>
+      <c r="F19" s="0" t="s">
+        <v>82</v>
+      </c>
       <c r="G19" s="0" t="n">
         <v>1063</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1990</v>
@@ -1223,19 +1384,22 @@
       <c r="E20" s="0" t="n">
         <v>1992</v>
       </c>
+      <c r="F20" s="0" t="s">
+        <v>86</v>
+      </c>
       <c r="G20" s="0" t="n">
         <v>612</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1992</v>
@@ -1243,19 +1407,22 @@
       <c r="E21" s="0" t="n">
         <v>2001</v>
       </c>
+      <c r="F21" s="0" t="s">
+        <v>90</v>
+      </c>
       <c r="G21" s="0" t="n">
         <v>1410</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2014</v>
@@ -1263,25 +1430,31 @@
       <c r="E22" s="0" t="n">
         <v>2020</v>
       </c>
+      <c r="F22" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G22" s="0" t="n">
         <v>5456</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>556</v>
@@ -1289,13 +1462,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2014</v>
@@ -1303,19 +1476,22 @@
       <c r="E24" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="F24" s="0" t="s">
+        <v>101</v>
+      </c>
       <c r="G24" s="0" t="n">
         <v>8256</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1996</v>
@@ -1323,19 +1499,22 @@
       <c r="E25" s="0" t="n">
         <v>2000</v>
       </c>
+      <c r="F25" s="0" t="s">
+        <v>104</v>
+      </c>
       <c r="G25" s="0" t="n">
         <v>1357</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1995</v>
@@ -1343,19 +1522,22 @@
       <c r="E26" s="0" t="n">
         <v>2001</v>
       </c>
+      <c r="F26" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G26" s="0" t="n">
         <v>1747</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1992</v>
@@ -1363,25 +1545,31 @@
       <c r="E27" s="0" t="n">
         <v>2000</v>
       </c>
+      <c r="F27" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="G27" s="0" t="n">
         <v>753</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1744</v>
@@ -1389,19 +1577,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>168</v>
@@ -1409,19 +1600,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>7352</v>
@@ -1429,19 +1623,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>64</v>
@@ -1449,13 +1646,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1999</v>
@@ -1463,19 +1660,22 @@
       <c r="E32" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="F32" s="0" t="s">
+        <v>128</v>
+      </c>
       <c r="G32" s="0" t="n">
         <v>8258</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1996</v>
@@ -1483,25 +1683,31 @@
       <c r="E33" s="0" t="n">
         <v>1996</v>
       </c>
+      <c r="F33" s="0" t="s">
+        <v>132</v>
+      </c>
       <c r="G33" s="0" t="n">
         <v>330</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2001</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1490</v>
@@ -1509,13 +1715,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1996</v>
@@ -1523,25 +1729,31 @@
       <c r="E35" s="0" t="n">
         <v>2000</v>
       </c>
+      <c r="F35" s="0" t="s">
+        <v>140</v>
+      </c>
       <c r="G35" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>2001</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1407</v>
@@ -1549,13 +1761,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2012</v>
@@ -1563,19 +1775,22 @@
       <c r="E37" s="0" t="n">
         <v>2016</v>
       </c>
+      <c r="F37" s="0" t="s">
+        <v>148</v>
+      </c>
       <c r="G37" s="0" t="n">
         <v>8255</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1998</v>
@@ -1583,19 +1798,22 @@
       <c r="E38" s="0" t="n">
         <v>2003</v>
       </c>
+      <c r="F38" s="0" t="s">
+        <v>152</v>
+      </c>
       <c r="G38" s="0" t="n">
         <v>8392</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1998</v>
@@ -1603,19 +1821,22 @@
       <c r="E39" s="0" t="n">
         <v>2011</v>
       </c>
+      <c r="F39" s="0" t="s">
+        <v>156</v>
+      </c>
       <c r="G39" s="0" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2000</v>
@@ -1623,19 +1844,22 @@
       <c r="E40" s="0" t="n">
         <v>2000</v>
       </c>
+      <c r="F40" s="0" t="s">
+        <v>160</v>
+      </c>
       <c r="G40" s="0" t="n">
         <v>839</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2000</v>
@@ -1643,19 +1867,22 @@
       <c r="E41" s="0" t="n">
         <v>2004</v>
       </c>
+      <c r="F41" s="0" t="s">
+        <v>164</v>
+      </c>
       <c r="G41" s="0" t="n">
         <v>1409</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2006</v>
@@ -1663,25 +1890,31 @@
       <c r="E42" s="0" t="n">
         <v>2011</v>
       </c>
+      <c r="F42" s="0" t="s">
+        <v>168</v>
+      </c>
       <c r="G42" s="0" t="n">
         <v>105</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>172</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>6738</v>
@@ -1689,13 +1922,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1990</v>
@@ -1703,19 +1936,22 @@
       <c r="E44" s="0" t="n">
         <v>2016</v>
       </c>
+      <c r="F44" s="0" t="s">
+        <v>176</v>
+      </c>
       <c r="G44" s="0" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>2007</v>
@@ -1723,19 +1959,22 @@
       <c r="E45" s="0" t="n">
         <v>2011</v>
       </c>
+      <c r="F45" s="0" t="s">
+        <v>180</v>
+      </c>
       <c r="G45" s="0" t="n">
         <v>347</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2010</v>
@@ -1743,25 +1982,31 @@
       <c r="E46" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="F46" s="0" t="s">
+        <v>184</v>
+      </c>
       <c r="G46" s="0" t="n">
         <v>1806</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1993</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>188</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>193</v>
@@ -1769,13 +2014,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2002</v>
@@ -1783,19 +2028,22 @@
       <c r="E48" s="0" t="n">
         <v>2020</v>
       </c>
+      <c r="F48" s="0" t="s">
+        <v>192</v>
+      </c>
       <c r="G48" s="0" t="n">
         <v>237</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>2012</v>
@@ -1803,25 +2051,31 @@
       <c r="E49" s="0" t="n">
         <v>2014</v>
       </c>
+      <c r="F49" s="0" t="s">
+        <v>196</v>
+      </c>
       <c r="G49" s="0" t="n">
         <v>8257</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>200</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1291</v>
@@ -1829,122 +2083,131 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>204</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>215</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1999</v>
@@ -1952,31 +2215,37 @@
       <c r="E56" s="0" t="n">
         <v>2003</v>
       </c>
+      <c r="F56" s="0" t="s">
+        <v>222</v>
+      </c>
       <c r="G56" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>226</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/LT_Dataset/Parties.xlsx
+++ b/LT_Dataset/Parties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="252">
   <si>
     <t xml:space="preserve">Acronym</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">Q4362</t>
   </si>
   <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSDP</t>
   </si>
   <si>
@@ -82,12 +85,12 @@
     <t xml:space="preserve">Labour Party</t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q1142007</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.darbopartija.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t xml:space="preserve">Q1261824</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.drasoskeliaspartija.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRONT</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t xml:space="preserve">Q4384905</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.slfrontas.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">JL</t>
   </si>
   <si>
@@ -163,6 +172,9 @@
     <t xml:space="preserve">Q1777648</t>
   </si>
   <si>
+    <t xml:space="preserve">LKD</t>
+  </si>
+  <si>
     <t xml:space="preserve">KKSS</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
     <t xml:space="preserve">Q1640373</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.krikscioniupartija.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">LiCS</t>
   </si>
   <si>
@@ -199,6 +214,9 @@
     <t xml:space="preserve">Q1357261</t>
   </si>
   <si>
+    <t xml:space="preserve">LLSL</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCP</t>
   </si>
   <si>
@@ -211,6 +229,9 @@
     <t xml:space="preserve">Q634790</t>
   </si>
   <si>
+    <t xml:space="preserve">https://centropartija.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCS</t>
   </si>
   <si>
@@ -247,6 +268,9 @@
     <t xml:space="preserve">Q11761933</t>
   </si>
   <si>
+    <t xml:space="preserve">LDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">LKDP</t>
   </si>
   <si>
@@ -259,9 +283,6 @@
     <t xml:space="preserve">Q3896751</t>
   </si>
   <si>
-    <t xml:space="preserve">LKD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lietuvos Krikščionys Demokratai </t>
   </si>
   <si>
@@ -271,6 +292,9 @@
     <t xml:space="preserve">Q977089</t>
   </si>
   <si>
+    <t xml:space="preserve">TSLKD</t>
+  </si>
+  <si>
     <t xml:space="preserve">LLL</t>
   </si>
   <si>
@@ -295,15 +319,15 @@
     <t xml:space="preserve">Q3825677</t>
   </si>
   <si>
-    <t xml:space="preserve">LLSL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lietuvos Laisvės Sąjunga (Liberalai) </t>
   </si>
   <si>
     <t xml:space="preserve">Lithuanian Freedom Union (Liberals)</t>
   </si>
   <si>
+    <t xml:space="preserve">LT</t>
+  </si>
+  <si>
     <t xml:space="preserve">LLRA</t>
   </si>
   <si>
@@ -316,6 +340,9 @@
     <t xml:space="preserve">Q1357218</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.awpl.lt/?lang=lt</t>
+  </si>
+  <si>
     <t xml:space="preserve">LLP</t>
   </si>
   <si>
@@ -328,6 +355,9 @@
     <t xml:space="preserve">Q3272676</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.liaudiespartija.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lietuvos liberalų sąjunga </t>
   </si>
   <si>
@@ -367,6 +397,9 @@
     <t xml:space="preserve">Q1466907</t>
   </si>
   <si>
+    <t xml:space="preserve">https://liberalai.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">LRS</t>
   </si>
   <si>
@@ -391,12 +424,18 @@
     <t xml:space="preserve">Q51077566</t>
   </si>
   <si>
+    <t xml:space="preserve">https://lsddp.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lietuvos socialdemokratų partija </t>
   </si>
   <si>
     <t xml:space="preserve">Lithuanian Social Democratic Party</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lsdp.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSDS</t>
   </si>
   <si>
@@ -409,6 +448,9 @@
     <t xml:space="preserve">Q5616934</t>
   </si>
   <si>
+    <t xml:space="preserve">https://lsds.lt/pages_id-45/</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUP</t>
   </si>
   <si>
@@ -433,6 +475,9 @@
     <t xml:space="preserve">Q285817</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lvzs.lt/lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">LVP</t>
   </si>
   <si>
@@ -457,6 +502,9 @@
     <t xml:space="preserve">Q15977776</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lzp.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">LPP</t>
   </si>
   <si>
@@ -541,6 +589,9 @@
     <t xml:space="preserve">Q28225050</t>
   </si>
   <si>
+    <t xml:space="preserve">http://lietuvossarasas.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPAP</t>
   </si>
   <si>
@@ -589,6 +640,9 @@
     <t xml:space="preserve">Q81556</t>
   </si>
   <si>
+    <t xml:space="preserve">https://tsajunga.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">TT LDP</t>
   </si>
   <si>
@@ -601,6 +655,9 @@
     <t xml:space="preserve">Q81517</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.ldp.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">ULL</t>
   </si>
   <si>
@@ -637,6 +694,9 @@
     <t xml:space="preserve">Q64252730</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.laisvespartija.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nacionalinis Susivienijimas</t>
   </si>
   <si>
@@ -646,6 +706,9 @@
     <t xml:space="preserve">Q97216079</t>
   </si>
   <si>
+    <t xml:space="preserve">https://susivienijimas.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">KS</t>
   </si>
   <si>
@@ -658,6 +721,9 @@
     <t xml:space="preserve">Q84735997</t>
   </si>
   <si>
+    <t xml:space="preserve">https://krikscioniu.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">KSS</t>
   </si>
   <si>
@@ -670,15 +736,15 @@
     <t xml:space="preserve">Q17457805</t>
   </si>
   <si>
-    <t xml:space="preserve">LT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Laisvė ir Teisingumas</t>
   </si>
   <si>
     <t xml:space="preserve">Freedom and Justice</t>
   </si>
   <si>
+    <t xml:space="preserve">https://laisve-teisingumas.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">SocDem2000</t>
   </si>
   <si>
@@ -701,6 +767,15 @@
   </si>
   <si>
     <t xml:space="preserve">Q16473985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lietuvos Dešiniųjų Sąjunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Wing Union of Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q934878</t>
   </si>
 </sst>
 </file>
@@ -883,10 +958,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -896,7 +971,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.6836734693878"/>
     <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.780612244898"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5204081632653"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
@@ -964,25 +1039,37 @@
       <c r="G2" s="0" t="n">
         <v>197</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2001</v>
+      </c>
       <c r="K2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -990,85 +1077,145 @@
       <c r="G3" s="0" t="n">
         <v>102</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>74</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1250</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1026</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2000</v>
@@ -1077,21 +1224,36 @@
         <v>2000</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1679</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2008</v>
@@ -1100,24 +1262,36 @@
         <v>2008</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>8279</v>
       </c>
+      <c r="H8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2004</v>
@@ -1126,21 +1300,36 @@
         <v>2004</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>2091</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1990</v>
@@ -1149,21 +1338,36 @@
         <v>2000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>776</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2004</v>
@@ -1172,24 +1376,36 @@
         <v>2010</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="H11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="K11" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2010</v>
@@ -1198,21 +1414,36 @@
         <v>2013</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>8254</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2003</v>
@@ -1221,44 +1452,74 @@
         <v>2014</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1193</v>
       </c>
+      <c r="H13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5455</v>
       </c>
+      <c r="H14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1993</v>
@@ -1267,21 +1528,36 @@
         <v>2003</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1185</v>
       </c>
+      <c r="H15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1990</v>
@@ -1290,24 +1566,36 @@
         <v>2001</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>546</v>
       </c>
+      <c r="H16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1992</v>
+      </c>
       <c r="K16" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1990</v>
@@ -1316,21 +1604,36 @@
         <v>1996</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>341</v>
       </c>
+      <c r="H17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1990</v>
@@ -1339,21 +1642,36 @@
         <v>2001</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>6804</v>
       </c>
+      <c r="H18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2001</v>
@@ -1362,21 +1680,36 @@
         <v>2008</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1063</v>
       </c>
+      <c r="H19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1990</v>
@@ -1385,21 +1718,36 @@
         <v>1992</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>612</v>
       </c>
+      <c r="H20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1992</v>
@@ -1408,21 +1756,36 @@
         <v>2001</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1410</v>
       </c>
+      <c r="H21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2014</v>
@@ -1431,44 +1794,74 @@
         <v>2020</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>5456</v>
       </c>
+      <c r="H22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>556</v>
       </c>
+      <c r="H23" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2014</v>
@@ -1477,21 +1870,36 @@
         <v>2014</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>8256</v>
       </c>
+      <c r="H24" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1996</v>
@@ -1500,21 +1908,36 @@
         <v>2000</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1357</v>
       </c>
+      <c r="H25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1995</v>
@@ -1523,21 +1946,36 @@
         <v>2001</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1747</v>
       </c>
+      <c r="H26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1992</v>
@@ -1546,96 +1984,144 @@
         <v>2000</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>753</v>
       </c>
+      <c r="H27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1744</v>
       </c>
+      <c r="H28" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>20</v>
+      <c r="E29" s="0" t="n">
+        <v>2020</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>168</v>
       </c>
+      <c r="H29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>7352</v>
       </c>
+      <c r="H30" s="0" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>15</v>
@@ -1643,16 +2129,19 @@
       <c r="G31" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="H31" s="0" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1999</v>
@@ -1661,21 +2150,24 @@
         <v>2014</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>8258</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1996</v>
@@ -1684,44 +2176,50 @@
         <v>1996</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>330</v>
       </c>
+      <c r="H33" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2001</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1490</v>
       </c>
+      <c r="H34" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1996</v>
@@ -1730,44 +2228,50 @@
         <v>2000</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="H35" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>2001</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1407</v>
       </c>
+      <c r="H36" s="0" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2012</v>
@@ -1776,21 +2280,24 @@
         <v>2016</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>8255</v>
       </c>
+      <c r="H37" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1998</v>
@@ -1799,21 +2306,24 @@
         <v>2003</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>8392</v>
       </c>
+      <c r="H38" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1998</v>
@@ -1822,21 +2332,24 @@
         <v>2011</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1800</v>
       </c>
+      <c r="H39" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2000</v>
@@ -1845,21 +2358,24 @@
         <v>2000</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>839</v>
       </c>
+      <c r="H40" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2000</v>
@@ -1868,21 +2384,24 @@
         <v>2004</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>1409</v>
       </c>
+      <c r="H41" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2006</v>
@@ -1891,44 +2410,50 @@
         <v>2011</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>105</v>
       </c>
+      <c r="H42" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>6738</v>
       </c>
+      <c r="H43" s="0" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1990</v>
@@ -1937,21 +2462,24 @@
         <v>2016</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>51</v>
       </c>
+      <c r="H44" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>2007</v>
@@ -1960,21 +2488,24 @@
         <v>2011</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>347</v>
       </c>
+      <c r="H45" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2010</v>
@@ -1983,44 +2514,50 @@
         <v>2014</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1806</v>
       </c>
+      <c r="H46" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1993</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>193</v>
       </c>
+      <c r="H47" s="0" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2002</v>
@@ -2029,21 +2566,24 @@
         <v>2020</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>237</v>
       </c>
+      <c r="H48" s="0" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>2012</v>
@@ -2052,162 +2592,183 @@
         <v>2014</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>8257</v>
       </c>
+      <c r="H49" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1291</v>
       </c>
+      <c r="H50" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1999</v>
@@ -2216,36 +2777,68 @@
         <v>2003</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/LT_Dataset/Parties.xlsx
+++ b/LT_Dataset/Parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="252">
   <si>
     <t xml:space="preserve">Acronym</t>
   </si>
@@ -493,7 +493,7 @@
     <t xml:space="preserve">LZP</t>
   </si>
   <si>
-    <t xml:space="preserve">Lietuvos žalioji partija Lithuanian </t>
+    <t xml:space="preserve">Lietuvos žaliųjų partija Lithuanian </t>
   </si>
   <si>
     <t xml:space="preserve">Green Party</t>
@@ -577,6 +577,9 @@
     <t xml:space="preserve">Q1290012</t>
   </si>
   <si>
+    <t xml:space="preserve">TVS</t>
+  </si>
+  <si>
     <t xml:space="preserve">List</t>
   </si>
   <si>
@@ -755,9 +758,6 @@
   </si>
   <si>
     <t xml:space="preserve">Q16472824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVS</t>
   </si>
   <si>
     <t xml:space="preserve">Tautos vienybės sąjunga</t>
@@ -961,7 +961,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="L59" activeCellId="0" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2106,6 +2106,18 @@
       <c r="H30" s="0" t="s">
         <v>134</v>
       </c>
+      <c r="I30" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -2132,6 +2144,18 @@
       <c r="H31" s="0" t="s">
         <v>137</v>
       </c>
+      <c r="I31" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -2158,6 +2182,18 @@
       <c r="H32" s="0" t="s">
         <v>142</v>
       </c>
+      <c r="I32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -2184,6 +2220,18 @@
       <c r="H33" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -2210,6 +2258,18 @@
       <c r="H34" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="I34" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -2262,6 +2322,18 @@
       <c r="H36" s="0" t="s">
         <v>160</v>
       </c>
+      <c r="I36" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -2288,6 +2360,18 @@
       <c r="H37" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -2314,6 +2398,18 @@
       <c r="H38" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I38" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -2340,6 +2436,18 @@
       <c r="H39" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I39" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -2366,6 +2474,18 @@
       <c r="H40" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -2392,6 +2512,18 @@
       <c r="H41" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -2418,16 +2550,28 @@
       <c r="H42" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2012</v>
@@ -2436,24 +2580,36 @@
         <v>16</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>6738</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1990</v>
@@ -2462,7 +2618,7 @@
         <v>2016</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>51</v>
@@ -2470,16 +2626,28 @@
       <c r="H44" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>2007</v>
@@ -2488,7 +2656,7 @@
         <v>2011</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>347</v>
@@ -2496,16 +2664,28 @@
       <c r="H45" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I45" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2010</v>
@@ -2514,7 +2694,7 @@
         <v>2014</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1806</v>
@@ -2522,16 +2702,28 @@
       <c r="H46" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1993</v>
@@ -2540,24 +2732,36 @@
         <v>16</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>193</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2002</v>
@@ -2566,24 +2770,36 @@
         <v>2020</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>237</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>2012</v>
@@ -2592,7 +2808,7 @@
         <v>2014</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>8257</v>
@@ -2600,16 +2816,28 @@
       <c r="H49" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2008</v>
@@ -2618,7 +2846,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1291</v>
@@ -2626,16 +2854,28 @@
       <c r="H50" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2019</v>
@@ -2644,13 +2884,25 @@
         <v>16</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,10 +2910,10 @@
         <v>169</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2020</v>
@@ -2670,47 +2922,71 @@
         <v>16</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2020</v>
@@ -2719,16 +2995,25 @@
         <v>16</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2736,10 +3021,10 @@
         <v>101</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2020</v>
@@ -2748,27 +3033,36 @@
         <v>16</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>1999</v>
@@ -2777,21 +3071,30 @@
         <v>2003</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="0" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>138</v>
       </c>
+      <c r="L56" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>246</v>
@@ -2813,6 +3116,18 @@
       </c>
       <c r="H57" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,6 +3154,18 @@
       </c>
       <c r="H58" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
